--- a/medicine/Œil et vue/Frédéric_Recordon/Frédéric_Recordon.xlsx
+++ b/medicine/Œil et vue/Frédéric_Recordon/Frédéric_Recordon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Recordon</t>
+          <t>Frédéric_Recordon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric Recordon, né à Rances le 4 août 1811 et mort à Écublens le 26 novembre 1899, est un ophtalmologue suisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Recordon</t>
+          <t>Frédéric_Recordon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de François-Louis, notaire, et de Rose-Louise Bourgeois, il épouse en 1842 Marie Hooker, fille de James, ingénieur à Portsmouth.
 Frédéric Recordon effectue ses études de médecine à Heidelberg et Paris, où il suit les leçons de l'ophtalmologue Julius Sichel. Il revient en Suisse où il devient tout d’abord, durant deux années, interne de Mathias Mayor à l’Hôpital cantonal vaudois. Il devient par la suite médecin de Lavey de 1835 à 1837. Il revient à Lausanne en 1837, il s’établit place Saint-Laurent et pratique la médecine se distinguant très vite en ophtalmologie ; il opère certains malades atteints d’infections oculaires et les héberge dans son propre appartement.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Recordon</t>
+          <t>Frédéric_Recordon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une avenue lausannoise bordant le parc de Valency a été nommée en son honneur, l'avenue Frédéric-Recordon. Le quartier comporte de nombreux lieux liés à ses activités d'ophtalmologue, notamment l'Hôpital Jules-Gonin Fondation Asile des aveugles.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Recordon</t>
+          <t>Frédéric_Recordon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vincent Barras, « Frédéric Recordon » dans le Dictionnaire historique de la Suisse en ligne, version du 3 mai 2012.
 Uniscope : "Une Française à la tête de l’Hôpital Jules-Gonin".
